--- a/assets/disciplinas/LOM3243.xlsx
+++ b/assets/disciplinas/LOM3243.xlsx
@@ -79,7 +79,7 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
     <t>Programa resumido:</t>

--- a/assets/disciplinas/LOM3243.xlsx
+++ b/assets/disciplinas/LOM3243.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>3577649 - Carlos Angelo Nunes</t>
+  </si>
+  <si>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -487,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,98 +623,106 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3243.xlsx
+++ b/assets/disciplinas/LOM3243.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer ao aluno seminários sobre temas atuais de Física, Tecnologia e Engenharia.</t>
+    <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>3577649 - Carlos Angelo Nunes</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Seminários abrangendo os cenários atuais e futuros da indústria de alta tecnologia e do campo de atuação do engenheiro físico.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Seminários seguido de debates com profissionais e estudantes de graduação e pós-graduação sobre temas relevantes e atuais das áreas de Física, Tecnologia e Engenharia, abrangendo desde as pesquisas básicas até o segmento industrial e de serviços.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Os seminários proferidos por estudantes de graduação e pós-graduação, professores e convidados serão debatidos e analisados pelos alunos em forma de relatório. Os seminários apresentados pelos alunos serão avaliados na disciplina.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final será calculada pela média aritmética dos relatórios e do seminário.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Não há.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>A ser definido de acordo com os temas dos seminários.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -679,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -690,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3243.xlsx
+++ b/assets/disciplinas/LOM3243.xlsx
@@ -121,7 +121,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3238 -  Projeto Integrado I  (Requisito)
+    <t xml:space="preserve">LOM3238 -  Projeto Integrado  (Requisito)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3243.xlsx
+++ b/assets/disciplinas/LOM3243.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide student seminars on current topics in Physics, Technology and Engineering.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -85,10 +88,16 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Seminars covering the current and future scenarios of the high technology industry and the field of activity of the physical engineer.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Seminars followed by debates with professionals and undergraduate and graduate students on relevant and current topics in the areas of Physics, Technology and Engineering, ranging from basic research to the industrial and services segment.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -597,15 +606,21 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -616,12 +631,18 @@
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -632,69 +653,75 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3243.xlsx
+++ b/assets/disciplinas/LOM3243.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer ao aluno seminários sobre temas atuais de Física, Tecnologia e Engenharia.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide student seminars on current topics in Physics, Technology and Engineering.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide student seminars on current topics in Physics, Technology and Engineering.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Seminários abrangendo os cenários atuais e futuros da indústria de alta tecnologia e do campo de atuação do engenheiro físico.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Seminários seguido de debates com profissionais e estudantes de graduação e pós-graduação sobre temas relevantes e atuais das áreas de Física, Tecnologia e Engenharia, abrangendo desde as pesquisas básicas até o segmento industrial e de serviços.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +118,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
+    <t>Os seminários proferidos por estudantes de graduação e pós-graduação, professores e convidados serão debatidos e analisados pelos alunos em forma de relatório. Os seminários apresentados pelos alunos serão avaliados na disciplina.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Os seminários proferidos por estudantes de graduação e pós-graduação, professores e convidados serão debatidos e analisados pelos alunos em forma de relatório. Os seminários apresentados pelos alunos serão avaliados na disciplina.</t>
+    <t>A nota final será calculada pela média aritmética dos relatórios e do seminário.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final será calculada pela média aritmética dos relatórios e do seminário.</t>
+    <t>Não há.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Não há.</t>
+    <t>A ser definido de acordo com os temas dos seminários.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,40 +630,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -662,30 +668,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -700,7 +706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -711,17 +717,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
